--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-8735</t>
+    <t>PR-9365</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-9365</t>
+    <t>PR-10423</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-10423</t>
+    <t>PR-10776</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-10776</t>
+    <t>PR-10995</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-10995</t>
+    <t>PR-11014</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-11014</t>
+    <t>PR-11378</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-11378</t>
+    <t>PR-12869</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-12869</t>
+    <t>PR-14894</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-14894</t>
+    <t/>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t/>
+    <t>PR-17022</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-17022</t>
+    <t>PR-18801</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
+++ b/src/main/java/Mccm/Pega/TestData/PegaOutputData.xlsx
@@ -17,7 +17,7 @@
     <t>CampRunID</t>
   </si>
   <si>
-    <t>PR-18801</t>
+    <t>PR-19376</t>
   </si>
 </sst>
 </file>
